--- a/final.xlsx
+++ b/final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pg\mntap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pg\garudadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB303976-45C1-4BD7-8696-05F60BCBF4E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05AA459-C1A1-4B9A-9F73-36F006FDEFA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="948" yWindow="0" windowWidth="22092" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tanggal</t>
   </si>
@@ -32,36 +32,6 @@
   </si>
   <si>
     <t>Tavg</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>31.9</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>24.4</t>
-  </si>
-  <si>
-    <t>32.25</t>
-  </si>
-  <si>
-    <t>27.9</t>
-  </si>
-  <si>
-    <t>31.6</t>
-  </si>
-  <si>
-    <t>27.8</t>
-  </si>
-  <si>
-    <t>28.3</t>
-  </si>
-  <si>
-    <t>28.14</t>
   </si>
 </sst>
 </file>
@@ -83,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,16 +76,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -425,7 +409,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,28 +435,28 @@
       <c r="A2" s="2">
         <v>2011</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" s="2">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2012</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
+      <c r="B3" s="2">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -480,27 +464,27 @@
         <v>2013</v>
       </c>
       <c r="B4" s="2">
-        <v>22.8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="2">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2014</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="3">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
+      <c r="D5" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -508,17 +492,18 @@
         <v>2021</v>
       </c>
       <c r="B6" s="2">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>